--- a/excel-test.xlsx
+++ b/excel-test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2365,6 +2365,36 @@
         </is>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Ziemniaki sadzeniaki i jadalne</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.olx.pl/d/oferta/ziemniaki-sadzeniaki-i-jadalne-CID757-IDJxJtf.html#eb9f5afda9</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Gryka do siewu nie pryskana</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.olx.pl/d/oferta/gryka-do-siewu-nie-pryskana-CID757-IDK1lgx.html#eb9f5afda9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel-test.xlsx
+++ b/excel-test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,10 +454,9 @@
           <t>Sprzedam owies odbiór osobisty</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sprzedam-owies-odbior-osobisty-CID757-IDJJa9O.html#eb9f5afda9</t>
-        </is>
+      <c r="C2">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sprzedam-owies-odbior-osobisty-CID757-IDJJa9O.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -469,10 +468,9 @@
           <t>Jęczmień jary kwalifikowany materiał siewny</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/jeczmien-jary-kwalifikowany-material-siewny-CID757-IDIQcjc.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C3">
+        <f>HYPERLINK("https://www.olx.pl/oferta/jeczmien-jary-kwalifikowany-material-siewny-CID757-IDIQcjc.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -484,10 +482,9 @@
           <t>Ziemniaki sadzeniaki kwalifikowane VINETA kl.A</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-kwalifikowane-vineta-kl-a-CID757-IDIg8AU.html#eb9f5afda9</t>
-        </is>
+      <c r="C4">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-kwalifikowane-vineta-kl-a-CID757-IDIg8AU.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -499,10 +496,9 @@
           <t>ziemniaki jadalne BELLAROSA I VINETA rok po centrali !</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-jadalne-bellarosa-i-vineta-rok-po-centrali-CID757-IDIOHIz.html#eb9f5afda9</t>
-        </is>
+      <c r="C5">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-jadalne-bellarosa-i-vineta-rok-po-centrali-CID757-IDIOHIz.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -514,10 +510,9 @@
           <t>KONESER - nasion kukurydzy kiszonka, słabe gleby FAO 260</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/koneser-nasion-kukurydzy-kiszonka-slabe-gleby-fao-260-CID757-IDHWANU.html#eb9f5afda9</t>
-        </is>
+      <c r="C6">
+        <f>HYPERLINK("https://www.olx.pl/oferta/koneser-nasion-kukurydzy-kiszonka-slabe-gleby-fao-260-CID757-IDHWANU.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -529,10 +524,9 @@
           <t>Ziemniak sadzeniaki Gala</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniak-sadzeniaki-gala-CID757-IDJJaoR.html#eb9f5afda9</t>
-        </is>
+      <c r="C7">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniak-sadzeniaki-gala-CID757-IDJJaoR.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -544,10 +538,9 @@
           <t>Sprzedam owies !</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sprzedam-owies-CID757-IDJJanp.html#eb9f5afda9</t>
-        </is>
+      <c r="C8">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sprzedam-owies-CID757-IDJJanp.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -559,10 +552,9 @@
           <t>Łubin biały słodki</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/lubin-bialy-slodki-CID757-IDJJamm.html#eb9f5afda9</t>
-        </is>
+      <c r="C9">
+        <f>HYPERLINK("https://www.olx.pl/oferta/lubin-bialy-slodki-CID757-IDJJamm.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -574,10 +566,9 @@
           <t>Dżekpot MS Kozacka Kukurydza FAO 210 (ZIARNO) 80 tyś nasion</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/dzekpot-ms-kozacka-kukurydza-fao-210-ziarno-80-tys-nasion-CID757-IDJfr8I.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C10">
+        <f>HYPERLINK("https://www.olx.pl/oferta/dzekpot-ms-kozacka-kukurydza-fao-210-ziarno-80-tys-nasion-CID757-IDJfr8I.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -589,10 +580,9 @@
           <t>Siano dla koni b dobrej jakości</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/siano-dla-koni-b-dobrej-jakosci-CID757-IDHTKga.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C11">
+        <f>HYPERLINK("https://www.olx.pl/oferta/siano-dla-koni-b-dobrej-jakosci-CID757-IDHTKga.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -604,10 +594,9 @@
           <t>Sadzeniaki przemysłowe Jubilat</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sadzeniaki-przemyslowe-jubilat-CID757-IDJJazN.html#eb9f5afda9</t>
-        </is>
+      <c r="C12">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sadzeniaki-przemyslowe-jubilat-CID757-IDJJazN.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -619,10 +608,9 @@
           <t>Siano dla zwierząt</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/siano-dla-zwierzat-CID757-IDHuXDE.html#eb9f5afda9</t>
-        </is>
+      <c r="C13">
+        <f>HYPERLINK("https://www.olx.pl/oferta/siano-dla-zwierzat-CID757-IDHuXDE.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -634,10 +622,9 @@
           <t>Nasiona Kukurydzy worek 80 tyś/hektar Kozacka Kukurydza Yevro</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/nasiona-kukurydzy-worek-80-tys-hektar-kozacka-kukurydza-yevro-CID757-IDJcMAb.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C14">
+        <f>HYPERLINK("https://www.olx.pl/oferta/nasiona-kukurydzy-worek-80-tys-hektar-kozacka-kukurydza-yevro-CID757-IDJcMAb.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -649,10 +636,9 @@
           <t>DMS 3111 Kozacka Kukurydza FAO 260/270 (KISZONKA) 80 tyś nasion</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/dms-3111-kozacka-kukurydza-fao-260-270-kiszonka-80-tys-nasion-CID757-IDJfq5t.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C15">
+        <f>HYPERLINK("https://www.olx.pl/oferta/dms-3111-kozacka-kukurydza-fao-260-270-kiszonka-80-tys-nasion-CID757-IDJfq5t.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -664,10 +650,9 @@
           <t>Nasiona Kukurydzy worek 80 tyś/hektar Kozacka Kukurydza Yevro</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/nasiona-kukurydzy-worek-80-tys-hektar-kozacka-kukurydza-yevro-CID757-IDJcQrE.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C16">
+        <f>HYPERLINK("https://www.olx.pl/oferta/nasiona-kukurydzy-worek-80-tys-hektar-kozacka-kukurydza-yevro-CID757-IDJcQrE.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -679,10 +664,9 @@
           <t>Sprzedam ziemniaki sadzeniaki</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sprzedam-ziemniaki-sadzeniaki-CID757-IDJKZus.html#eb9f5afda9</t>
-        </is>
+      <c r="C17">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sprzedam-ziemniaki-sadzeniaki-CID757-IDJKZus.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="18">
@@ -694,10 +678,9 @@
           <t>Queen Anne Soraya Sadzeniaki kwalifikowane</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/queen-anne-soraya-sadzeniaki-kwalifikowane-CID757-IDIlUjJ.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C18">
+        <f>HYPERLINK("https://www.olx.pl/oferta/queen-anne-soraya-sadzeniaki-kwalifikowane-CID757-IDIlUjJ.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="19">
@@ -709,10 +692,9 @@
           <t>ziemniaki vineta bellarosa o kalibrażu 3-5,5 cm wielkość sadzeniaka</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-vineta-bellarosa-o-kalibrazu-3-5-5-cm-wielkosc-sadzeniaka-CID757-IDHyqok.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C19">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-vineta-bellarosa-o-kalibrazu-3-5-5-cm-wielkosc-sadzeniaka-CID757-IDHyqok.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="20">
@@ -724,10 +706,9 @@
           <t>Ziemniaki. Wielkość sadzeniaka. Red lady Vineta, Lilly ,Irys, Teresha</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-wielkosc-sadzeniaka-red-lady-vineta-lilly-irys-teresha-CID757-IDJ5C3B.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C20">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-wielkosc-sadzeniaka-red-lady-vineta-lilly-irys-teresha-CID757-IDJ5C3B.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="21">
@@ -739,10 +720,9 @@
           <t>nostrzyk biały dwuletni</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/nostrzyk-bialy-dwuletni-CID757-IDIEcHI.html#eb9f5afda9</t>
-        </is>
+      <c r="C21">
+        <f>HYPERLINK("https://www.olx.pl/oferta/nostrzyk-bialy-dwuletni-CID757-IDIEcHI.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="22">
@@ -754,10 +734,9 @@
           <t>sprzedam soczewica zielona siew dobra siła kiełkowania</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sprzedam-soczewica-zielona-siew-dobra-sila-kielkowania-CID757-IDJJaSq.html#eb9f5afda9</t>
-        </is>
+      <c r="C22">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sprzedam-soczewica-zielona-siew-dobra-sila-kielkowania-CID757-IDJJaSq.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="23">
@@ -769,10 +748,9 @@
           <t>Sadzeniaki ziemniaka</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sadzeniaki-ziemniaka-CID757-IDJJaPc.html#eb9f5afda9</t>
-        </is>
+      <c r="C23">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sadzeniaki-ziemniaka-CID757-IDJJaPc.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="24">
@@ -784,10 +762,9 @@
           <t>Nasiona Kukurydzy worek 80 tyś/hektar Kozacka Kukurydza Yevro</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/nasiona-kukurydzy-worek-80-tys-hektar-kozacka-kukurydza-yevro-CID757-IDIXJKw.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C24">
+        <f>HYPERLINK("https://www.olx.pl/oferta/nasiona-kukurydzy-worek-80-tys-hektar-kozacka-kukurydza-yevro-CID757-IDIXJKw.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="25">
@@ -799,10 +776,9 @@
           <t>Sprzedam sadzeniaki bardzo dobre</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sprzedam-sadzeniaki-bardzo-dobre-CID757-IDJEUbC.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C25">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sprzedam-sadzeniaki-bardzo-dobre-CID757-IDJEUbC.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="26">
@@ -814,10 +790,9 @@
           <t>Ziemniaki sadzeniaki  podkielowane Denar Lord</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-podkielowane-denar-lord-CID757-IDJ97O4.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C26">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-podkielowane-denar-lord-CID757-IDJ97O4.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="27">
@@ -829,10 +804,9 @@
           <t>Słoma pszenna lub pszenżytnia</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sloma-pszenna-lub-pszenzytnia-CID757-IDBb43H.html#eb9f5afda9</t>
-        </is>
+      <c r="C27">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sloma-pszenna-lub-pszenzytnia-CID757-IDBb43H.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="28">
@@ -844,10 +818,9 @@
           <t>Kukurydza do siewu</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/kukurydza-do-siewu-CID757-IDJJaXu.html#eb9f5afda9</t>
-        </is>
+      <c r="C28">
+        <f>HYPERLINK("https://www.olx.pl/oferta/kukurydza-do-siewu-CID757-IDJJaXu.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="29">
@@ -859,10 +832,9 @@
           <t>Ziemniaki sadzeniaki</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-CID757-IDJJaXI.html#eb9f5afda9</t>
-        </is>
+      <c r="C29">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-CID757-IDJJaXI.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="30">
@@ -874,10 +846,9 @@
           <t>Ziemniaki  wielkości sadzeniaka sadzeniak  Soraja Melody ( Soraya)</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-wielkosci-sadzeniaka-sadzeniak-soraja-melody-soraya-CID757-IDJsJBh.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C30">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-wielkosci-sadzeniaka-sadzeniak-soraja-melody-soraya-CID757-IDJsJBh.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="31">
@@ -889,10 +860,9 @@
           <t>Ziemniaki wielkości sedzeniaka</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-wielkosci-sedzeniaka-CID757-IDIEycI.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C31">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-wielkosci-sedzeniaka-CID757-IDIEycI.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="32">
@@ -904,10 +874,9 @@
           <t>Premiia FAO 210 Kozacka Kukurydza (ZIARNO) 80 tyś nasion</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/premiia-fao-210-kozacka-kukurydza-ziarno-80-tys-nasion-CID757-IDJfqGt.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C32">
+        <f>HYPERLINK("https://www.olx.pl/oferta/premiia-fao-210-kozacka-kukurydza-ziarno-80-tys-nasion-CID757-IDJfqGt.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="33">
@@ -919,10 +888,9 @@
           <t>Ziemniaki Laskara</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-laskara-CID757-IDJKXTP.html#eb9f5afda9</t>
-        </is>
+      <c r="C33">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-laskara-CID757-IDJKXTP.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="34">
@@ -934,10 +902,9 @@
           <t>Ziemniaki sadzeniaki</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-CID757-IDJKXBH.html#eb9f5afda9</t>
-        </is>
+      <c r="C34">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-CID757-IDJKXBH.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="35">
@@ -949,10 +916,9 @@
           <t>Ziemniaki sadzeniaki tajfun, Bella rosa</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-tajfun-bella-rosa-CID757-IDJKXtu.html#eb9f5afda9</t>
-        </is>
+      <c r="C35">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-tajfun-bella-rosa-CID757-IDJKXtu.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="36">
@@ -964,10 +930,9 @@
           <t>Siano suche bez deszczu pogodne,kiszonka sianokiszonka z traw sianych</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/siano-suche-bez-deszczu-pogodne-kiszonka-sianokiszonka-z-traw-sianych-CID757-IDCD6AK.html#9a1c9f5201;promoted</t>
-        </is>
+      <c r="C36">
+        <f>HYPERLINK("https://www.olx.pl/oferta/siano-suche-bez-deszczu-pogodne-kiszonka-sianokiszonka-z-traw-sianych-CID757-IDCD6AK.html#9a1c9f5201;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="37">
@@ -979,10 +944,9 @@
           <t>Seradela, Proso, Gryka, Wyka jara ekologiczna, Gryka , Proso, fahr</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/seradela-proso-gryka-wyka-jara-ekologiczna-gryka-proso-fahr-CID757-IDBAbII.html#6bf9d12233;promoted</t>
-        </is>
+      <c r="C37">
+        <f>HYPERLINK("https://www.olx.pl/oferta/seradela-proso-gryka-wyka-jara-ekologiczna-gryka-proso-fahr-CID757-IDBAbII.html#6bf9d12233;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="38">
@@ -994,10 +958,9 @@
           <t>Ziemniaki gala wielkość sadzeniaka</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-gala-wielkosc-sadzeniaka-CID757-IDJxlaU.html#9a1c9f5201;promoted</t>
-        </is>
+      <c r="C38">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-gala-wielkosc-sadzeniaka-CID757-IDJxlaU.html#9a1c9f5201;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="39">
@@ -1009,10 +972,9 @@
           <t>Sprzedam Sadzeniaki</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sprzedam-sadzeniaki-CID757-IDJFxOX.html#ae36309ced;promoted</t>
-        </is>
+      <c r="C39">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sprzedam-sadzeniaki-CID757-IDJFxOX.html#ae36309ced;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="40">
@@ -1024,10 +986,9 @@
           <t>Ziemniaki sadzeniaki tajfun, Bella rosa</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-tajfun-bella-rosa-CID757-IDJKXtu.html#6bf9d12233</t>
-        </is>
+      <c r="C40">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-tajfun-bella-rosa-CID757-IDJKXtu.html#6bf9d12233")</f>
+        <v/>
       </c>
     </row>
     <row r="41">
@@ -1039,10 +1000,9 @@
           <t>Sadzeniaki winiety</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sadzeniaki-winiety-CID757-IDJKX7h.html#9a1c9f5201</t>
-        </is>
+      <c r="C41">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sadzeniaki-winiety-CID757-IDJKX7h.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="42">
@@ -1054,10 +1014,9 @@
           <t>Pszenica ozima ładna czyszczona</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/pszenica-ozima-ladna-czyszczona-CID757-IDGucE8.html#ae36309ced</t>
-        </is>
+      <c r="C42">
+        <f>HYPERLINK("https://www.olx.pl/oferta/pszenica-ozima-ladna-czyszczona-CID757-IDGucE8.html#ae36309ced")</f>
+        <v/>
       </c>
     </row>
     <row r="43">
@@ -1069,10 +1028,9 @@
           <t>Sadzonki pomidorów</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sadzonki-pomidorow-CID757-IDJKRId.html#9a1c9f5201</t>
-        </is>
+      <c r="C43">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sadzonki-pomidorow-CID757-IDJKRId.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="44">
@@ -1084,10 +1042,9 @@
           <t>pszenica kukurydza owies pszenżyto ziemniaki wielkości sadzeniaka</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/pszenica-kukurydza-owies-pszenzyto-ziemniaki-wielkosci-sadzeniaka-CID757-IDuenql.html#9a1c9f5201</t>
-        </is>
+      <c r="C44">
+        <f>HYPERLINK("https://www.olx.pl/oferta/pszenica-kukurydza-owies-pszenzyto-ziemniaki-wielkosci-sadzeniaka-CID757-IDuenql.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="45">
@@ -1099,10 +1056,9 @@
           <t>Sprzedam Ziemniaki Gala</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sprzedam-ziemniaki-gala-CID757-IDGTsip.html#9a1c9f5201</t>
-        </is>
+      <c r="C45">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sprzedam-ziemniaki-gala-CID757-IDGTsip.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="46">
@@ -1114,10 +1070,9 @@
           <t>sadzeniaki irga.</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sadzeniaki-irga-CID757-IDJKXjp.html#ae36309ced</t>
-        </is>
+      <c r="C46">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sadzeniaki-irga-CID757-IDJKXjp.html#ae36309ced")</f>
+        <v/>
       </c>
     </row>
     <row r="47">
@@ -1129,10 +1084,9 @@
           <t>Ziemniaki Irys (kaliber jak sadzeniaki)</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-irys-kaliber-jak-sadzeniaki-CID757-IDJ5Hxs.html#9a1c9f5201</t>
-        </is>
+      <c r="C47">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-irys-kaliber-jak-sadzeniaki-CID757-IDJ5Hxs.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="48">
@@ -1144,10 +1098,9 @@
           <t>Ziemniaki Irga (kaliber jak sadzeniaki)</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-irga-kaliber-jak-sadzeniaki-CID757-IDJ5GVC.html#9a1c9f5201</t>
-        </is>
+      <c r="C48">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-irga-kaliber-jak-sadzeniaki-CID757-IDJ5GVC.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="49">
@@ -1159,10 +1112,9 @@
           <t>Pszenica ozima pakowana czyszczona</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/pszenica-ozima-pakowana-czyszczona-CID757-IDGudeY.html#6bf9d12233</t>
-        </is>
+      <c r="C49">
+        <f>HYPERLINK("https://www.olx.pl/oferta/pszenica-ozima-pakowana-czyszczona-CID757-IDGudeY.html#6bf9d12233")</f>
+        <v/>
       </c>
     </row>
     <row r="50">
@@ -1174,10 +1126,9 @@
           <t>ziemniaki jadalne i sadzeniaki</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-jadalne-i-sadzeniaki-CID757-IDJHmHu.html#ae36309ced</t>
-        </is>
+      <c r="C50">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-jadalne-i-sadzeniaki-CID757-IDJHmHu.html#ae36309ced")</f>
+        <v/>
       </c>
     </row>
     <row r="51">
@@ -1189,10 +1140,9 @@
           <t>Pszenica ozima ładna czyszczona</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/pszenica-ozima-ladna-czyszczona-CID757-IDGucE8.html#6bf9d12233</t>
-        </is>
+      <c r="C51">
+        <f>HYPERLINK("https://www.olx.pl/oferta/pszenica-ozima-ladna-czyszczona-CID757-IDGucE8.html#6bf9d12233")</f>
+        <v/>
       </c>
     </row>
     <row r="52">
@@ -1204,10 +1154,9 @@
           <t>Zmienaki wielkości sadzeniaka</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/zmienaki-wielkosci-sadzeniaka-CID757-IDJlcDT.html#ae36309ced;promoted</t>
-        </is>
+      <c r="C52">
+        <f>HYPERLINK("https://www.olx.pl/oferta/zmienaki-wielkosci-sadzeniaka-CID757-IDJlcDT.html#ae36309ced;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="53">
@@ -1219,10 +1168,9 @@
           <t>Zmienaki wielkości sadzeniaka</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/zmienaki-wielkosci-sadzeniaka-CID757-IDJlcDT.html#6bf9d12233;promoted</t>
-        </is>
+      <c r="C53">
+        <f>HYPERLINK("https://www.olx.pl/oferta/zmienaki-wielkosci-sadzeniaka-CID757-IDJlcDT.html#6bf9d12233;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="54">
@@ -1234,10 +1182,9 @@
           <t>Ziemniaki sadzeniaki Belmondo , Bellarosa , Denar</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-belmondo-bellarosa-denar-CID757-IDIN6yM.html#ae36309ced;promoted</t>
-        </is>
+      <c r="C54">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-belmondo-bellarosa-denar-CID757-IDIN6yM.html#ae36309ced;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="55">
@@ -1249,10 +1196,9 @@
           <t>Nasiona Kukurydzy worek 80 tyś/hektar Kozacka Kukurydza Yevro</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/nasiona-kukurydzy-worek-80-tys-hektar-kozacka-kukurydza-yevro-CID757-IDIXJKw.html#9a1c9f5201;promoted</t>
-        </is>
+      <c r="C55">
+        <f>HYPERLINK("https://www.olx.pl/oferta/nasiona-kukurydzy-worek-80-tys-hektar-kozacka-kukurydza-yevro-CID757-IDIXJKw.html#9a1c9f5201;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="56">
@@ -1264,10 +1210,9 @@
           <t>Sprzedam ziemniaki - sadzeniaki odmiana VINETA</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sprzedam-ziemniaki-sadzeniaki-odmiana-vineta-CID757-IDJH77z.html#ae36309ced;promoted</t>
-        </is>
+      <c r="C56">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sprzedam-ziemniaki-sadzeniaki-odmiana-vineta-CID757-IDJH77z.html#ae36309ced;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="57">
@@ -1279,10 +1224,9 @@
           <t>Pszenica ozima pakowana czyszczona</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/pszenica-ozima-pakowana-czyszczona-CID757-IDGudeY.html#ae36309ced</t>
-        </is>
+      <c r="C57">
+        <f>HYPERLINK("https://www.olx.pl/oferta/pszenica-ozima-pakowana-czyszczona-CID757-IDGudeY.html#ae36309ced")</f>
+        <v/>
       </c>
     </row>
     <row r="58">
@@ -1294,10 +1238,9 @@
           <t>Ziemniaki Sadzeniaki Anuschka i Toscana</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-anuschka-i-toscana-CID757-IDJFHkW.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C58">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-anuschka-i-toscana-CID757-IDJFHkW.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="59">
@@ -1309,10 +1252,9 @@
           <t>Fasola Jaś,,Wysyłka kurier'' ''Fasola na nasienie"</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/fasola-jas-wysylka-kurier-fasola-na-nasienie-CID757-IDHHJ7x.html#eb9f5afda9</t>
-        </is>
+      <c r="C59">
+        <f>HYPERLINK("https://www.olx.pl/oferta/fasola-jas-wysylka-kurier-fasola-na-nasienie-CID757-IDHHJ7x.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="60">
@@ -1324,10 +1266,9 @@
           <t>ziemniaki jadalne i sadzeniaki</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-jadalne-i-sadzeniaki-CID757-IDJHmHu.html#9a1c9f5201</t>
-        </is>
+      <c r="C60">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-jadalne-i-sadzeniaki-CID757-IDJHmHu.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="61">
@@ -1339,10 +1280,9 @@
           <t>Ziemniaki sadzeniaki</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-CID757-IDJKXBH.html#6bf9d12233</t>
-        </is>
+      <c r="C61">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-CID757-IDJKXBH.html#6bf9d12233")</f>
+        <v/>
       </c>
     </row>
     <row r="62">
@@ -1354,10 +1294,9 @@
           <t>Sprzedam Łubin goszki, słodki z 2 roku przestawnego na Ekologii</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sprzedam-lubin-goszki-slodki-z-2-roku-przestawnego-na-ekologii-CID757-IDJCkVj.html#ae36309ced;promoted</t>
-        </is>
+      <c r="C62">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sprzedam-lubin-goszki-slodki-z-2-roku-przestawnego-na-ekologii-CID757-IDJCkVj.html#ae36309ced;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="63">
@@ -1369,10 +1308,9 @@
           <t>Soja Adessa nasiona zaprawiane kwalifikat</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/soja-adessa-nasiona-zaprawiane-kwalifikat-CID757-IDJf4OU.html#9a1c9f5201;promoted</t>
-        </is>
+      <c r="C63">
+        <f>HYPERLINK("https://www.olx.pl/oferta/soja-adessa-nasiona-zaprawiane-kwalifikat-CID757-IDJf4OU.html#9a1c9f5201;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="64">
@@ -1384,10 +1322,9 @@
           <t>Sprzedam Sadzeniaki</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sprzedam-sadzeniaki-CID757-IDJo5HB.html#ae36309ced;promoted</t>
-        </is>
+      <c r="C64">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sprzedam-sadzeniaki-CID757-IDJo5HB.html#ae36309ced;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="65">
@@ -1399,10 +1336,9 @@
           <t>Sadzeniaki ziemniaka ARIZONA</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sadzeniaki-ziemniaka-arizona-CID757-IDJI8nd.html#9a1c9f5201;promoted</t>
-        </is>
+      <c r="C65">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sadzeniaki-ziemniaka-arizona-CID757-IDJI8nd.html#9a1c9f5201;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="66">
@@ -1414,10 +1350,9 @@
           <t>Sprzedam Łubin goszki, słodki z 2 roku przestawnego na Ekologii</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sprzedam-lubin-goszki-slodki-z-2-roku-przestawnego-na-ekologii-CID757-IDJCkVj.html#6bf9d12233;promoted</t>
-        </is>
+      <c r="C66">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sprzedam-lubin-goszki-slodki-z-2-roku-przestawnego-na-ekologii-CID757-IDJCkVj.html#6bf9d12233;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="67">
@@ -1429,10 +1364,9 @@
           <t>sadzeniaki irga.</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sadzeniaki-irga-CID757-IDJKXjp.html#9a1c9f5201</t>
-        </is>
+      <c r="C67">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sadzeniaki-irga-CID757-IDJKXjp.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="68">
@@ -1444,10 +1378,9 @@
           <t>Ziemniaki Laskara</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-laskara-CID757-IDJKXTP.html#6bf9d12233</t>
-        </is>
+      <c r="C68">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-laskara-CID757-IDJKXTP.html#6bf9d12233")</f>
+        <v/>
       </c>
     </row>
     <row r="69">
@@ -1459,10 +1392,9 @@
           <t>ziemniaki sadzeniaki</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-CID757-IDJrufj.html#6bf9d12233;promoted</t>
-        </is>
+      <c r="C69">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-CID757-IDJrufj.html#6bf9d12233;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="70">
@@ -1474,10 +1406,9 @@
           <t>Ziemniaki sadzeniaki skrobiowe</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-skrobiowe-CID757-IDIWqsC.html#ae36309ced;promoted</t>
-        </is>
+      <c r="C70">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-skrobiowe-CID757-IDIWqsC.html#ae36309ced;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="71">
@@ -1489,10 +1420,9 @@
           <t>sprzedam ziemniaki</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sprzedam-ziemniaki-CID757-IDJklgy.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C71">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sprzedam-ziemniaki-CID757-IDJklgy.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="72">
@@ -1504,10 +1434,9 @@
           <t>Pszenica ozima ładna czyszczona</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/pszenica-ozima-ladna-czyszczona-CID757-IDGucE8.html#9a1c9f5201</t>
-        </is>
+      <c r="C72">
+        <f>HYPERLINK("https://www.olx.pl/oferta/pszenica-ozima-ladna-czyszczona-CID757-IDGucE8.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="73">
@@ -1519,10 +1448,9 @@
           <t>Sprzedam sadzeniaki</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sprzedam-sadzeniaki-CID757-IDJKYLI.html#eb9f5afda9</t>
-        </is>
+      <c r="C73">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sprzedam-sadzeniaki-CID757-IDJKYLI.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="74">
@@ -1534,10 +1462,9 @@
           <t>Ziemniaki sadzeniaki tajfun, Bella rosa</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-tajfun-bella-rosa-CID757-IDJKXtu.html#ae36309ced</t>
-        </is>
+      <c r="C74">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-tajfun-bella-rosa-CID757-IDJKXtu.html#ae36309ced")</f>
+        <v/>
       </c>
     </row>
     <row r="75">
@@ -1549,10 +1476,9 @@
           <t>BELLAROSA. Ziemniaki do sadzenia, wielkości sadzeniaka</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/bellarosa-ziemniaki-do-sadzenia-wielkosci-sadzeniaka-CID757-IDJAqcG.html#9a1c9f5201;promoted</t>
-        </is>
+      <c r="C75">
+        <f>HYPERLINK("https://www.olx.pl/oferta/bellarosa-ziemniaki-do-sadzenia-wielkosci-sadzeniaka-CID757-IDJAqcG.html#9a1c9f5201;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="76">
@@ -1564,10 +1490,9 @@
           <t>Sprzedam ziemniaki wielkości  sadzeniaka</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sprzedam-ziemniaki-wielkosci-sadzeniaka-CID757-IDIXCt1.html#54b4b0a584;promoted</t>
-        </is>
+      <c r="C76">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sprzedam-ziemniaki-wielkosci-sadzeniaka-CID757-IDIXCt1.html#54b4b0a584;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="77">
@@ -1579,10 +1504,9 @@
           <t>Ziemniaki Sadzeniaki Anuschka i Toscana</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-anuschka-i-toscana-CID757-IDJFHkW.html#6bf9d12233;promoted</t>
-        </is>
+      <c r="C77">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-anuschka-i-toscana-CID757-IDJFHkW.html#6bf9d12233;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="78">
@@ -1594,10 +1518,9 @@
           <t>Sadzonki sadzeniaki ziemniaki Dominator Albatros</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sadzonki-sadzeniaki-ziemniaki-dominator-albatros-CID757-IDJAcZ3.html#ae36309ced;promoted</t>
-        </is>
+      <c r="C78">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sadzonki-sadzeniaki-ziemniaki-dominator-albatros-CID757-IDJAcZ3.html#ae36309ced;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="79">
@@ -1609,10 +1532,9 @@
           <t>Fasola Jaś,,Wysyłka kurier'' ''Fasola na nasienie"</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/fasola-jas-wysylka-kurier-fasola-na-nasienie-CID757-IDHHJ7x.html#6bf9d12233</t>
-        </is>
+      <c r="C79">
+        <f>HYPERLINK("https://www.olx.pl/oferta/fasola-jas-wysylka-kurier-fasola-na-nasienie-CID757-IDHHJ7x.html#6bf9d12233")</f>
+        <v/>
       </c>
     </row>
     <row r="80">
@@ -1624,10 +1546,9 @@
           <t>Facelia błękitna</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/facelia-blekitna-CID757-IDHDoBq.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C80">
+        <f>HYPERLINK("https://www.olx.pl/oferta/facelia-blekitna-CID757-IDHDoBq.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="81">
@@ -1639,10 +1560,9 @@
           <t>Sprzedam ziemniaki skrobiowe sadzeniaki albatros i vineta</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sprzedam-ziemniaki-skrobiowe-sadzeniaki-albatros-i-vineta-CID757-IDJKZbh.html#eb9f5afda9</t>
-        </is>
+      <c r="C81">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sprzedam-ziemniaki-skrobiowe-sadzeniaki-albatros-i-vineta-CID757-IDJKZbh.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="82">
@@ -1654,10 +1574,9 @@
           <t>Zuzanna ziemniaki drobne wielkosci SADZENIAKA</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/zuzanna-ziemniaki-drobne-wielkosci-sadzeniaka-CID757-IDJseW7.html#eb9f5afda9</t>
-        </is>
+      <c r="C82">
+        <f>HYPERLINK("https://www.olx.pl/oferta/zuzanna-ziemniaki-drobne-wielkosci-sadzeniaka-CID757-IDJseW7.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="83">
@@ -1669,10 +1588,9 @@
           <t>Gorczyca Rzodkiew oleista groch poplony ekologiczne certyfikat</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/gorczyca-rzodkiew-oleista-groch-poplony-ekologiczne-certyfikat-CID757-IDGcpkz.html#6bf9d12233;promoted</t>
-        </is>
+      <c r="C83">
+        <f>HYPERLINK("https://www.olx.pl/oferta/gorczyca-rzodkiew-oleista-groch-poplony-ekologiczne-certyfikat-CID757-IDGcpkz.html#6bf9d12233;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="84">
@@ -1684,10 +1602,9 @@
           <t>Sadzonki</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sadzonki-CID757-IDJFV7G.html#6bf9d12233;promoted</t>
-        </is>
+      <c r="C84">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sadzonki-CID757-IDJFV7G.html#6bf9d12233;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="85">
@@ -1699,10 +1616,9 @@
           <t>Ziemniaki 34 odmiany zolte i czerwone jadalne i wielkosc sadzeniaka</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-34-odmiany-zolte-i-czerwone-jadalne-i-wielkosc-sadzeniaka-CID757-IDxTKBR.html#9a1c9f5201;promoted</t>
-        </is>
+      <c r="C85">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-34-odmiany-zolte-i-czerwone-jadalne-i-wielkosc-sadzeniaka-CID757-IDxTKBR.html#9a1c9f5201;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="86">
@@ -1714,10 +1630,9 @@
           <t>Ziemniaki jadalne Vineta 15 kg</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-jadalne-vineta-15-kg-CID757-IDJnVFC.html#ae36309ced;promoted</t>
-        </is>
+      <c r="C86">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-jadalne-vineta-15-kg-CID757-IDJnVFC.html#ae36309ced;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="87">
@@ -1729,10 +1644,9 @@
           <t>Kukurydza INOXX Material Siewny</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/kukurydza-inoxx-material-siewny-CID757-IDJeQMp.html#9a1c9f5201;promoted</t>
-        </is>
+      <c r="C87">
+        <f>HYPERLINK("https://www.olx.pl/oferta/kukurydza-inoxx-material-siewny-CID757-IDJeQMp.html#9a1c9f5201;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="88">
@@ -1744,10 +1658,9 @@
           <t>Sprzedam sadzeniaki</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sprzedam-sadzeniaki-CID757-IDJKYLI.html#6bf9d12233</t>
-        </is>
+      <c r="C88">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sprzedam-sadzeniaki-CID757-IDJKYLI.html#6bf9d12233")</f>
+        <v/>
       </c>
     </row>
     <row r="89">
@@ -1759,10 +1672,9 @@
           <t>Sadzonki truskawek</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sadzonki-truskawek-CID757-IDJxrkL.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C89">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sadzonki-truskawek-CID757-IDJxrkL.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="90">
@@ -1774,10 +1686,9 @@
           <t>Sprzedam ziemniaki</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sprzedam-ziemniaki-CID757-IDJKZvA.html#eb9f5afda9</t>
-        </is>
+      <c r="C90">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sprzedam-ziemniaki-CID757-IDJKZvA.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="91">
@@ -1789,10 +1700,9 @@
           <t>Ziemniaki sadzeniaki tajfun, Bella rosa</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-tajfun-bella-rosa-CID757-IDJKXtu.html#9a1c9f5201</t>
-        </is>
+      <c r="C91">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-tajfun-bella-rosa-CID757-IDJKXtu.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="92">
@@ -1804,10 +1714,9 @@
           <t>Ziemniaki sadzeniaki; VINETA, IRGA (cena 0,70 -0,50 zł)</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-vineta-irga-cena-0-70-0-50-zl-CID757-IDJxbVa.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C92">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-vineta-irga-cena-0-70-0-50-zl-CID757-IDJxbVa.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="93">
@@ -1819,10 +1728,9 @@
           <t>Ziemniaki Laskara</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-laskara-CID757-IDJKXTP.html#ae36309ced</t>
-        </is>
+      <c r="C93">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-laskara-CID757-IDJKXTP.html#ae36309ced")</f>
+        <v/>
       </c>
     </row>
     <row r="94">
@@ -1834,10 +1742,9 @@
           <t>Pszenica ozima pakowana czyszczona</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/pszenica-ozima-pakowana-czyszczona-CID757-IDGudeY.html#9a1c9f5201</t>
-        </is>
+      <c r="C94">
+        <f>HYPERLINK("https://www.olx.pl/oferta/pszenica-ozima-pakowana-czyszczona-CID757-IDGudeY.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="95">
@@ -1849,10 +1756,9 @@
           <t>Nagietek lekarski ziele cięte</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/nagietek-lekarski-ziele-ciete-CID757-IDFXgVe.html#eb9f5afda9</t>
-        </is>
+      <c r="C95">
+        <f>HYPERLINK("https://www.olx.pl/oferta/nagietek-lekarski-ziele-ciete-CID757-IDFXgVe.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="96">
@@ -1864,10 +1770,9 @@
           <t>Ziemniaki sadzeniaki</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-CID757-IDJKXBH.html#ae36309ced</t>
-        </is>
+      <c r="C96">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-CID757-IDJKXBH.html#ae36309ced")</f>
+        <v/>
       </c>
     </row>
     <row r="97">
@@ -1879,10 +1784,9 @@
           <t>Ziemniaki wineta sadzeniak</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-wineta-sadzeniak-CID757-IDJBIxb.html#ae36309ced;promoted</t>
-        </is>
+      <c r="C97">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-wineta-sadzeniak-CID757-IDJBIxb.html#ae36309ced;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="98">
@@ -1894,10 +1798,9 @@
           <t>Sadzonki ziemniaka, sadzeniaki Vineta</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/sadzonki-ziemniaka-sadzeniaki-vineta-CID757-IDJHBzK.html#9a1c9f5201;promoted</t>
-        </is>
+      <c r="C98">
+        <f>HYPERLINK("https://www.olx.pl/oferta/sadzonki-ziemniaka-sadzeniaki-vineta-CID757-IDJHBzK.html#9a1c9f5201;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="99">
@@ -1909,10 +1812,9 @@
           <t>Zuzanna ziemniaki drobne wielkosci SADZENIAKA</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/zuzanna-ziemniaki-drobne-wielkosci-sadzeniaka-CID757-IDJseW7.html#6bf9d12233</t>
-        </is>
+      <c r="C99">
+        <f>HYPERLINK("https://www.olx.pl/oferta/zuzanna-ziemniaki-drobne-wielkosci-sadzeniaka-CID757-IDJseW7.html#6bf9d12233")</f>
+        <v/>
       </c>
     </row>
     <row r="100">
@@ -1924,10 +1826,9 @@
           <t>Ziemniak sadzeniak</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniak-sadzeniak-CID757-IDJkCvr.html#eb9f5afda9;promoted</t>
-        </is>
+      <c r="C100">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniak-sadzeniak-CID757-IDJkCvr.html#eb9f5afda9;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="101">
@@ -1939,10 +1840,9 @@
           <t>Nagietek lekarski ziele cięte</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/nagietek-lekarski-ziele-ciete-CID757-IDFXgVe.html#6bf9d12233</t>
-        </is>
+      <c r="C101">
+        <f>HYPERLINK("https://www.olx.pl/oferta/nagietek-lekarski-ziele-ciete-CID757-IDFXgVe.html#6bf9d12233")</f>
+        <v/>
       </c>
     </row>
     <row r="102">
@@ -1954,10 +1854,9 @@
           <t>Ziemniaki sadzeniaki Denar</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-denar-CID757-IDJKZFA.html#eb9f5afda9</t>
-        </is>
+      <c r="C102">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-denar-CID757-IDJKZFA.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="103">
@@ -1969,10 +1868,9 @@
           <t>ziemniaki vineta bellarosa o kalibrażu 3-5,5 cm wielkość sadzeniaka</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-vineta-bellarosa-o-kalibrazu-3-5-5-cm-wielkosc-sadzeniaka-CID757-IDHyqok.html#6bf9d12233;promoted</t>
-        </is>
+      <c r="C103">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-vineta-bellarosa-o-kalibrazu-3-5-5-cm-wielkosc-sadzeniaka-CID757-IDHyqok.html#6bf9d12233;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="104">
@@ -1984,10 +1882,9 @@
           <t>Ziemniaki sadzeniaki</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/oferta/ziemniaki-sadzeniaki-CID757-IDJKXBH.html#9a1c9f5201</t>
-        </is>
+      <c r="C104">
+        <f>HYPERLINK("https://www.olx.pl/oferta/ziemniaki-sadzeniaki-CID757-IDJKXBH.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="105">
@@ -1999,10 +1896,9 @@
           <t>Suche Siano tegoroczne dla koni kucyków - transport gratis</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/suche-siano-tegoroczne-dla-koni-kucykow-transport-gratis-CID757-IDFANCW.html#eb9f5afda9</t>
-        </is>
+      <c r="C105">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/suche-siano-tegoroczne-dla-koni-kucykow-transport-gratis-CID757-IDFANCW.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="106">
@@ -2014,10 +1910,9 @@
           <t>Ziemniaki sadzeniaki Bellarosa</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/ziemniaki-sadzeniaki-bellarosa-CID757-IDJBcTA.html#eb9f5afda9</t>
-        </is>
+      <c r="C106">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ziemniaki-sadzeniaki-bellarosa-CID757-IDJBcTA.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="107">
@@ -2029,10 +1924,9 @@
           <t>Gryka na siew poplon</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/gryka-na-siew-poplon-CID757-IDJZyd0.html#ae36309ced</t>
-        </is>
+      <c r="C107">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gryka-na-siew-poplon-CID757-IDJZyd0.html#ae36309ced")</f>
+        <v/>
       </c>
     </row>
     <row r="108">
@@ -2044,10 +1938,9 @@
           <t>Siano kostka tegoroczne</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/siano-kostka-tegoroczne-CID757-IDGBTyP.html#6bf9d12233</t>
-        </is>
+      <c r="C108">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/siano-kostka-tegoroczne-CID757-IDGBTyP.html#6bf9d12233")</f>
+        <v/>
       </c>
     </row>
     <row r="109">
@@ -2059,10 +1952,9 @@
           <t>Sprzedam ziemniaki sadzeniaki odmiana owacja.</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/sprzedam-ziemniaki-sadzeniaki-odmiana-owacja-CID757-IDJLKV2.html#eb9f5afda9</t>
-        </is>
+      <c r="C109">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/sprzedam-ziemniaki-sadzeniaki-odmiana-owacja-CID757-IDJLKV2.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="110">
@@ -2074,10 +1966,9 @@
           <t>Ziemniaki kaliber sadzeniaka</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/ziemniaki-kaliber-sadzeniaka-CID757-IDJoi2C.html#9a1c9f5201</t>
-        </is>
+      <c r="C110">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ziemniaki-kaliber-sadzeniaka-CID757-IDJoi2C.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="111">
@@ -2089,10 +1980,9 @@
           <t>Gryka na siew poplon</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/gryka-na-siew-poplon-CID757-IDJZyd0.html#6bf9d12233</t>
-        </is>
+      <c r="C111">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gryka-na-siew-poplon-CID757-IDJZyd0.html#6bf9d12233")</f>
+        <v/>
       </c>
     </row>
     <row r="112">
@@ -2104,10 +1994,9 @@
           <t>Suche Siano tegoroczne z pierwszego pokosu 2020 # transport gratis</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/suche-siano-tegoroczne-z-pierwszego-pokosu-2020-transport-gratis-CID757-IDFB7Zz.html#eb9f5afda9</t>
-        </is>
+      <c r="C112">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/suche-siano-tegoroczne-z-pierwszego-pokosu-2020-transport-gratis-CID757-IDFB7Zz.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="113">
@@ -2119,10 +2008,9 @@
           <t>Suche Siano tegoroczne dla koni kucyków - transport gratis</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/suche-siano-tegoroczne-dla-koni-kucykow-transport-gratis-CID757-IDFANCW.html#6bf9d12233</t>
-        </is>
+      <c r="C113">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/suche-siano-tegoroczne-dla-koni-kucykow-transport-gratis-CID757-IDFANCW.html#6bf9d12233")</f>
+        <v/>
       </c>
     </row>
     <row r="114">
@@ -2134,10 +2022,9 @@
           <t>Gryka na siew poplon</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/gryka-na-siew-poplon-CID757-IDJZyd0.html#9a1c9f5201</t>
-        </is>
+      <c r="C114">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gryka-na-siew-poplon-CID757-IDJZyd0.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="115">
@@ -2149,10 +2036,9 @@
           <t>Ziemniaki sadzeniaki Bellarosa</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/ziemniaki-sadzeniaki-bellarosa-CID757-IDJBcTA.html#6bf9d12233</t>
-        </is>
+      <c r="C115">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ziemniaki-sadzeniaki-bellarosa-CID757-IDJBcTA.html#6bf9d12233")</f>
+        <v/>
       </c>
     </row>
     <row r="116">
@@ -2164,10 +2050,9 @@
           <t>Sprzedam ziemniaki sadzeniaki odmiana owacja.</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/sprzedam-ziemniaki-sadzeniaki-odmiana-owacja-CID757-IDJLKV2.html#6bf9d12233</t>
-        </is>
+      <c r="C116">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/sprzedam-ziemniaki-sadzeniaki-odmiana-owacja-CID757-IDJLKV2.html#6bf9d12233")</f>
+        <v/>
       </c>
     </row>
     <row r="117">
@@ -2179,10 +2064,9 @@
           <t>Siano kostka tegoroczne</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/siano-kostka-tegoroczne-CID757-IDGBTyP.html#ae36309ced</t>
-        </is>
+      <c r="C117">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/siano-kostka-tegoroczne-CID757-IDGBTyP.html#ae36309ced")</f>
+        <v/>
       </c>
     </row>
     <row r="118">
@@ -2194,10 +2078,9 @@
           <t>Siano kostka tegoroczne</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/siano-kostka-tegoroczne-CID757-IDGBTyP.html#9a1c9f5201</t>
-        </is>
+      <c r="C118">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/siano-kostka-tegoroczne-CID757-IDGBTyP.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="119">
@@ -2209,10 +2092,9 @@
           <t>Suche Siano tegoroczne z pierwszego pokosu 2020 # transport gratis</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/suche-siano-tegoroczne-z-pierwszego-pokosu-2020-transport-gratis-CID757-IDFB7Zz.html#6bf9d12233</t>
-        </is>
+      <c r="C119">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/suche-siano-tegoroczne-z-pierwszego-pokosu-2020-transport-gratis-CID757-IDFB7Zz.html#6bf9d12233")</f>
+        <v/>
       </c>
     </row>
     <row r="120">
@@ -2224,10 +2106,9 @@
           <t>Sprzedam owies breton do siewu lub na paszę.</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/sprzedam-owies-breton-do-siewu-lub-na-pasze-CID757-IDJwGMB.html#ae36309ced;promoted</t>
-        </is>
+      <c r="C120">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/sprzedam-owies-breton-do-siewu-lub-na-pasze-CID757-IDJwGMB.html#ae36309ced;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="121">
@@ -2239,10 +2120,9 @@
           <t>Poplony Gorczyca Wyka Ozima Rzodkiew Oleista Gryka Słonecznik Facelia</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/poplony-gorczyca-wyka-ozima-rzodkiew-oleista-gryka-slonecznik-facelia-CID757-IDEY6J4.html#ae36309ced;promoted</t>
-        </is>
+      <c r="C121">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/poplony-gorczyca-wyka-ozima-rzodkiew-oleista-gryka-slonecznik-facelia-CID757-IDEY6J4.html#ae36309ced;promoted")</f>
+        <v/>
       </c>
     </row>
     <row r="122">
@@ -2254,10 +2134,9 @@
           <t>Suche Siano tegoroczne z pierwszego pokosu 2020 # transport gratis</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/suche-siano-tegoroczne-z-pierwszego-pokosu-2020-transport-gratis-CID757-IDFB7Zz.html#ae36309ced</t>
-        </is>
+      <c r="C122">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/suche-siano-tegoroczne-z-pierwszego-pokosu-2020-transport-gratis-CID757-IDFB7Zz.html#ae36309ced")</f>
+        <v/>
       </c>
     </row>
     <row r="123">
@@ -2269,10 +2148,9 @@
           <t>Suche Siano tegoroczne dla koni kucyków - transport gratis</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/suche-siano-tegoroczne-dla-koni-kucykow-transport-gratis-CID757-IDFANCW.html#ae36309ced</t>
-        </is>
+      <c r="C123">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/suche-siano-tegoroczne-dla-koni-kucykow-transport-gratis-CID757-IDFANCW.html#ae36309ced")</f>
+        <v/>
       </c>
     </row>
     <row r="124">
@@ -2284,10 +2162,9 @@
           <t>Ziemniaki sadzeniaki Bellarosa</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/ziemniaki-sadzeniaki-bellarosa-CID757-IDJBcTA.html#ae36309ced</t>
-        </is>
+      <c r="C124">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ziemniaki-sadzeniaki-bellarosa-CID757-IDJBcTA.html#ae36309ced")</f>
+        <v/>
       </c>
     </row>
     <row r="125">
@@ -2299,10 +2176,9 @@
           <t>Sprzedam ziemniaki sadzeniaki odmiana owacja.</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/sprzedam-ziemniaki-sadzeniaki-odmiana-owacja-CID757-IDJLKV2.html#ae36309ced</t>
-        </is>
+      <c r="C125">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/sprzedam-ziemniaki-sadzeniaki-odmiana-owacja-CID757-IDJLKV2.html#ae36309ced")</f>
+        <v/>
       </c>
     </row>
     <row r="126">
@@ -2314,10 +2190,9 @@
           <t>Suche Siano tegoroczne z pierwszego pokosu 2020 # transport gratis</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/suche-siano-tegoroczne-z-pierwszego-pokosu-2020-transport-gratis-CID757-IDFB7Zz.html#9a1c9f5201</t>
-        </is>
+      <c r="C126">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/suche-siano-tegoroczne-z-pierwszego-pokosu-2020-transport-gratis-CID757-IDFB7Zz.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="127">
@@ -2329,10 +2204,9 @@
           <t>Suche Siano tegoroczne dla koni kucyków - transport gratis</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/suche-siano-tegoroczne-dla-koni-kucykow-transport-gratis-CID757-IDFANCW.html#9a1c9f5201</t>
-        </is>
+      <c r="C127">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/suche-siano-tegoroczne-dla-koni-kucykow-transport-gratis-CID757-IDFANCW.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="128">
@@ -2344,10 +2218,9 @@
           <t>Ziemniaki sadzeniaki Bellarosa</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/ziemniaki-sadzeniaki-bellarosa-CID757-IDJBcTA.html#9a1c9f5201</t>
-        </is>
+      <c r="C128">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ziemniaki-sadzeniaki-bellarosa-CID757-IDJBcTA.html#9a1c9f5201")</f>
+        <v/>
       </c>
     </row>
     <row r="129">
@@ -2359,10 +2232,9 @@
           <t>Sadzeniaki denary 0.35</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/sadzeniaki-denary-0-35-CID757-IDJMYx1.html#eb9f5afda9</t>
-        </is>
+      <c r="C129">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/sadzeniaki-denary-0-35-CID757-IDJMYx1.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="130">
@@ -2374,10 +2246,9 @@
           <t>Ziemniaki sadzeniaki i jadalne</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/ziemniaki-sadzeniaki-i-jadalne-CID757-IDJxJtf.html#eb9f5afda9</t>
-        </is>
+      <c r="C130">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ziemniaki-sadzeniaki-i-jadalne-CID757-IDJxJtf.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
     <row r="131">
@@ -2389,10 +2260,849 @@
           <t>Gryka do siewu nie pryskana</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>https://www.olx.pl/d/oferta/gryka-do-siewu-nie-pryskana-CID757-IDK1lgx.html#eb9f5afda9</t>
-        </is>
+      <c r="C131">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gryka-do-siewu-nie-pryskana-CID757-IDK1lgx.html#eb9f5afda9")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Fasola igołomska zaprawiona do siewu</t>
+        </is>
+      </c>
+      <c r="C132">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fasola-igolomska-zaprawiona-do-siewu-CID757-IDK1kZG.html#ae36309ced")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Ziemniaki sadzeniaki i jadalne</t>
+        </is>
+      </c>
+      <c r="C133">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ziemniaki-sadzeniaki-i-jadalne-CID757-IDJxJtf.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Gryka do siewu nie pryskana</t>
+        </is>
+      </c>
+      <c r="C134">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gryka-do-siewu-nie-pryskana-CID757-IDK1lgx.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik wyka mieszanki poplonowe</t>
+        </is>
+      </c>
+      <c r="C135">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-wyka-mieszanki-poplonowe-CID757-IDJCQb3.html#eb9f5afda9")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Facelia rzodkiew gorczyca wyka słonecznik mieszanki poplonowe</t>
+        </is>
+      </c>
+      <c r="C136">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-rzodkiew-gorczyca-wyka-slonecznik-mieszanki-poplonowe-CID757-IDJCPUK.html#eb9f5afda9")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Fasola igołomska zaprawiona do siewu</t>
+        </is>
+      </c>
+      <c r="C137">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fasola-igolomska-zaprawiona-do-siewu-CID757-IDK1kZG.html#9a1c9f5201")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Ziemniaki sadzeniaki i jadalne</t>
+        </is>
+      </c>
+      <c r="C138">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ziemniaki-sadzeniaki-i-jadalne-CID757-IDJxJtf.html#ae36309ced")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Gryka do siewu nie pryskana</t>
+        </is>
+      </c>
+      <c r="C139">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gryka-do-siewu-nie-pryskana-CID757-IDK1lgx.html#ae36309ced")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Poplony zlota czworka slonecznik facelia gorczyca słonecznik wysyłka</t>
+        </is>
+      </c>
+      <c r="C140">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/poplony-zlota-czworka-slonecznik-facelia-gorczyca-slonecznik-wysylka-CID757-IDFyQ7x.html#eb9f5afda9")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Poplony zlota czworka slonecznik facelia gorczyca słonecznik wysyłka</t>
+        </is>
+      </c>
+      <c r="C141">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/poplony-zlota-czworka-slonecznik-facelia-gorczyca-slonecznik-wysylka-CID757-IDFyQ7x.html#9a1c9f5201")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Poplony zlota czworka slonecznik facelia gorczyca słonecznik wysyłka</t>
+        </is>
+      </c>
+      <c r="C142">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/poplony-zlota-czworka-slonecznik-facelia-gorczyca-slonecznik-wysylka-CID757-IDFyQ7x.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew mieszanki poplony wysyłka cały kraj</t>
+        </is>
+      </c>
+      <c r="C143">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-mieszanki-poplony-wysylka-caly-kraj-CID757-IDJCYfL.html#eb9f5afda9")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C144">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCYwn.html#eb9f5afda9")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik wyka mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C145">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-wyka-mieszanki-poplony-wysylka-CID757-IDJCYLo.html#eb9f5afda9")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew poplony mieszanki wysyłka cały kraj</t>
+        </is>
+      </c>
+      <c r="C146">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-poplony-mieszanki-wysylka-caly-kraj-CID757-IDJCYYd.html#eb9f5afda9")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew mieszanki poplony wysyłka cały kraj</t>
+        </is>
+      </c>
+      <c r="C147">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-mieszanki-poplony-wysylka-caly-kraj-CID757-IDJCYfL.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C148">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCYwn.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C149">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCWn1.html#ae36309ced")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik wyka mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C150">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-wyka-mieszanki-poplony-wysylka-CID757-IDJCYLo.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C151">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCW77.html#ae36309ced")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew poplony mieszanki wysyłka cały kraj</t>
+        </is>
+      </c>
+      <c r="C152">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-poplony-mieszanki-wysylka-caly-kraj-CID757-IDJCYYd.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Facelia poplony mieszanki gorczyca słonecznik rzodkiew wysyłka kraj</t>
+        </is>
+      </c>
+      <c r="C153">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-poplony-mieszanki-gorczyca-slonecznik-rzodkiew-wysylka-kraj-CID757-IDJDO3f.html#eb9f5afda9")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca wyka rzodkiew mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C154">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-wyka-rzodkiew-mieszanki-poplony-wysylka-CID757-IDJCUTr.html#ae36309ced")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew mieszanki poplony wysyłka cały kraj</t>
+        </is>
+      </c>
+      <c r="C155">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-mieszanki-poplony-wysylka-caly-kraj-CID757-IDJCZ8Y.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C156">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCUIQ.html#ae36309ced")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Facelia słonecznik rzodkiew wyka gorczyca mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C157">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-slonecznik-rzodkiew-wyka-gorczyca-mieszanki-poplony-wysylka-CID757-IDJDOsn.html#eb9f5afda9")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C158">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCY6p.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew saradela gryka mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C159">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-saradela-gryka-mieszanki-poplony-wysylka-CID757-IDJCUoc.html#ae36309ced")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca słonecznik rzodkiew mieszanki poplony wysyłka kraj</t>
+        </is>
+      </c>
+      <c r="C160">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-slonecznik-rzodkiew-mieszanki-poplony-wysylka-kraj-CID757-IDJDPKW.html#eb9f5afda9")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca słonecznik rzodkiew mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C161">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-slonecznik-rzodkiew-mieszanki-poplony-wysylka-CID757-IDJCU6B.html#ae36309ced")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Facelia poplony mieszanki gorczyca rzodkiew słonecznik wysyłka kraj</t>
+        </is>
+      </c>
+      <c r="C162">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-poplony-mieszanki-gorczyca-rzodkiew-slonecznik-wysylka-kraj-CID757-IDJDQsw.html#eb9f5afda9")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka kraj</t>
+        </is>
+      </c>
+      <c r="C163">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-kraj-CID757-IDJDQJx.html#eb9f5afda9")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew poplony mieszanki wysyłka cały kraj</t>
+        </is>
+      </c>
+      <c r="C164">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-poplony-mieszanki-wysylka-caly-kraj-CID757-IDJCXUW.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C165">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCXGt.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca słonecznik gryka saradela mieszanki poplonowe wysyłka</t>
+        </is>
+      </c>
+      <c r="C166">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-slonecznik-gryka-saradela-mieszanki-poplonowe-wysylka-CID757-IDJCQXp.html#ae36309ced")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew mieszanki poplony wysyłka cały kraj</t>
+        </is>
+      </c>
+      <c r="C167">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-mieszanki-poplony-wysylka-caly-kraj-CID757-IDJCXr4.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C168">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCQGZ.html#ae36309ced")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca słonecznik rzodkiew mieszanki poplony</t>
+        </is>
+      </c>
+      <c r="C169">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-slonecznik-rzodkiew-mieszanki-poplony-CID757-IDJCQqL.html#ae36309ced")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C170">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCXc5.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik wyka mieszanki poplonowe</t>
+        </is>
+      </c>
+      <c r="C171">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-wyka-mieszanki-poplonowe-CID757-IDJCQb3.html#ae36309ced")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Facelia rzodkiew gorczyca wyka słonecznik mieszanki poplonowe</t>
+        </is>
+      </c>
+      <c r="C172">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-rzodkiew-gorczyca-wyka-slonecznik-mieszanki-poplonowe-CID757-IDJCPUK.html#ae36309ced")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C173">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCX1s.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C174">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCVQh.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C175">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCVzV.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C176">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCVkJ.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C177">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCWCl.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C178">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCWn1.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C179">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCW77.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca wyka rzodkiew mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C180">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-wyka-rzodkiew-mieszanki-poplony-wysylka-CID757-IDJCUTr.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C181">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCUIQ.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew saradela gryka mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C182">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-saradela-gryka-mieszanki-poplony-wysylka-CID757-IDJCUoc.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca słonecznik rzodkiew mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C183">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-slonecznik-rzodkiew-mieszanki-poplony-wysylka-CID757-IDJCU6B.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca słonecznik gryka saradela mieszanki poplonowe wysyłka</t>
+        </is>
+      </c>
+      <c r="C184">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-slonecznik-gryka-saradela-mieszanki-poplonowe-wysylka-CID757-IDJCQXp.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C185">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCQGZ.html#6bf9d12233")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka</t>
+        </is>
+      </c>
+      <c r="C186">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-CID757-IDJCQGZ.html#9a1c9f5201")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca słonecznik rzodkiew mieszanki poplony</t>
+        </is>
+      </c>
+      <c r="C187">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-slonecznik-rzodkiew-mieszanki-poplony-CID757-IDJCQqL.html#9a1c9f5201")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik wyka mieszanki poplonowe</t>
+        </is>
+      </c>
+      <c r="C188">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-wyka-mieszanki-poplonowe-CID757-IDJCQb3.html#9a1c9f5201")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Facelia rzodkiew gorczyca wyka słonecznik mieszanki poplonowe</t>
+        </is>
+      </c>
+      <c r="C189">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-rzodkiew-gorczyca-wyka-slonecznik-mieszanki-poplonowe-CID757-IDJCPUK.html#9a1c9f5201")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca słonecznik rzodkiew mieszanki poplony wysyłka kraj</t>
+        </is>
+      </c>
+      <c r="C190">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-slonecznik-rzodkiew-mieszanki-poplony-wysylka-kraj-CID757-IDJDOJ9.html#eb9f5afda9")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Facelia gorczyca rzodkiew słonecznik mieszanki poplony wysyłka kraj</t>
+        </is>
+      </c>
+      <c r="C191">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/facelia-gorczyca-rzodkiew-slonecznik-mieszanki-poplony-wysylka-kraj-CID757-IDJDQgV.html#eb9f5afda9")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
